--- a/data/testcase/homePage.xlsx
+++ b/data/testcase/homePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,12 @@
     <t>用例描述</t>
   </si>
   <si>
-    <t>执行结果</t>
-  </si>
-  <si>
     <t>homePage_01</t>
   </si>
   <si>
     <t>查看文章</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>步骤编号</t>
   </si>
   <si>
@@ -48,12 +42,6 @@
     <t>元素名称</t>
   </si>
   <si>
-    <t>输入数据</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
     <t>s_001</t>
   </si>
   <si>
@@ -66,12 +54,18 @@
     <t>closeBut</t>
   </si>
   <si>
-    <t>截图</t>
-  </si>
-  <si>
     <t>s_002</t>
   </si>
   <si>
+    <t>选择&lt;前端&gt;栏目</t>
+  </si>
+  <si>
+    <t>frontChannel</t>
+  </si>
+  <si>
+    <t>s_003</t>
+  </si>
+  <si>
     <t>点击第一个文章</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>//android.widget.Button[@text='关闭']</t>
+  </si>
+  <si>
+    <t>前端-栏目</t>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[@resource-id='net.csdn.csdnplus:id/ll_skilltag']//android.widget.TextView[@text='前端']</t>
   </si>
   <si>
     <t>第一个文章</t>
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,6 +140,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -147,16 +185,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,15 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,17 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +270,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -256,29 +279,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +484,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,6 +536,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -526,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,39 +584,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,39 +1087,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5583333333333" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1132,97 +1126,92 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="23.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.775" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="2" ht="15" spans="1:9">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="15" spans="1:9">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="截图"/>
-    <hyperlink ref="I3" r:id="rId2" display="截图"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1232,73 +1221,87 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.87962962962963" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
     </row>
